--- a/smartlist.main/src/main/resources/InsertItems.xlsx
+++ b/smartlist.main/src/main/resources/InsertItems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quoc Duy Do\Documents\Coding\IdeaProjects\SmartList\smartlist.main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E8C1C9-9A75-4480-966B-6D08986E8B6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4471DBD3-8600-41FF-BE66-EBB028CF913C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BA7E22EE-569E-4DA1-A62A-5B50C5E18702}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18900" windowHeight="11055" xr2:uid="{BA7E22EE-569E-4DA1-A62A-5B50C5E18702}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,9 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,7 +424,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA92D65-A2F9-4D5A-A0A7-E90E911CBA99}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -421,11 +434,11 @@
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -463,5 +476,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>